--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value145.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value145.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9426702255759671</v>
+        <v>0.7537016272544861</v>
       </c>
       <c r="B1">
-        <v>1.827323797818881</v>
+        <v>1.380809187889099</v>
       </c>
       <c r="C1">
-        <v>2.913110921020616</v>
+        <v>4.9274001121521</v>
       </c>
       <c r="D1">
-        <v>2.68077791326942</v>
+        <v>1.996675133705139</v>
       </c>
       <c r="E1">
-        <v>1.005095588800495</v>
+        <v>1.257204532623291</v>
       </c>
     </row>
   </sheetData>
